--- a/Config2.xlsx
+++ b/Config2.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <x:si>
-    <x:t>08/10/2023 08:27:01</x:t>
+    <x:t>10/26/2023 08:13:38</x:t>
   </x:si>
 </x:sst>
 </file>
